--- a/Blazor-MAUI-Demos/wwwroot/data/xlsio/what-if-analysis-template.xlsx
+++ b/Blazor-MAUI-Demos/wwwroot/data/xlsio/what-if-analysis-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KonduruKeerthiKondur\Desktop\Build\Samples\WPF\23.1.20\SampleBrowser\xlsio\Assets\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KonduruKeerthiKondur\Desktop\UWP Build\Samples\Universal Windows\23.1.28\SampleBrowser\XlsIO\XlsIO\Tutorials\Samples\Assets\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620940CC-85D2-4B83-99E1-45FD45B492C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FDEA3D-0A2E-4D95-9AE1-D09BE927B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks Price Prediction" sheetId="1" r:id="rId1"/>
@@ -2740,22 +2740,22 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2789,7 +2789,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>1558400</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>2579701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1021301</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>0.65535228439425053</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>56250</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>19175.999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>414750</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
@@ -3264,10 +3264,10 @@
         <v>1021301</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
     </row>
   </sheetData>
